--- a/tables/Supplemental table markers.xlsx
+++ b/tables/Supplemental table markers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0171860/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u0138640/Documents/Papers/DeWinter_NeuralTube/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66322E15-96BD-D246-AAFA-971162A7FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB48F02B-8573-504F-BF32-C367FBA08C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="740" windowWidth="10000" windowHeight="18900" xr2:uid="{17946FB5-01E5-6640-9AB3-4D24DD7E87FD}"/>
+    <workbookView xWindow="-6060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{17946FB5-01E5-6640-9AB3-4D24DD7E87FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>Cell type</t>
   </si>
@@ -162,13 +162,19 @@
   </si>
   <si>
     <t>CSF1R</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Table S1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,13 +186,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -222,12 +221,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -238,6 +293,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{254FBA50-C836-5B4E-B670-090EEE6A82A8}" name="Table1" displayName="Table1" ref="A1:C48" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C48" xr:uid="{254FBA50-C836-5B4E-B670-090EEE6A82A8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B7E2CDF3-B8B4-9B45-A661-24C5E21D52D8}" name="Sample"/>
+    <tableColumn id="2" xr3:uid="{38BE34A7-DBD1-A442-935C-A19EDAFFBD0E}" name="Cell type" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D495A309-2454-104F-B217-A522E9496BC6}" name="Marker gene" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,422 +624,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E874F82E-45B2-0C4C-9E65-ACF84BE8229B}">
-  <dimension ref="A1:B52"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScale="169" zoomScaleNormal="100" zoomScalePageLayoutView="169" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScale="117" zoomScaleNormal="100" zoomScalePageLayoutView="117" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C39" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A49:C49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>